--- a/Data Mix/Resultat/Bourgogne.xlsx
+++ b/Data Mix/Resultat/Bourgogne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Région</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -884,29 +884,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2014-1</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>48728941</v>
+        <v>297184702</v>
       </c>
       <c r="D14" t="n">
-        <v>2319641</v>
+        <v>17620668</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>638034</v>
+        <v>3342582</v>
       </c>
       <c r="G14" t="n">
-        <v>304136</v>
+        <v>1830621</v>
       </c>
       <c r="H14" t="n">
-        <v>2374120</v>
+        <v>14778026</v>
       </c>
       <c r="I14" t="n">
-        <v>247029</v>
+        <v>1402638</v>
       </c>
     </row>
     <row r="15">
@@ -917,29 +917,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2014-2</t>
+          <t>2014-1</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>52611037</v>
+        <v>48728941</v>
       </c>
       <c r="D15" t="n">
-        <v>2452205</v>
+        <v>2319641</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>740020</v>
+        <v>638034</v>
       </c>
       <c r="G15" t="n">
-        <v>320425</v>
+        <v>304136</v>
       </c>
       <c r="H15" t="n">
-        <v>2540554</v>
+        <v>2374120</v>
       </c>
       <c r="I15" t="n">
-        <v>272598</v>
+        <v>247029</v>
       </c>
     </row>
     <row r="16">
@@ -950,29 +950,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2014-3</t>
+          <t>2014-2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>56395230</v>
+        <v>52611037</v>
       </c>
       <c r="D16" t="n">
-        <v>2602809</v>
+        <v>2452205</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>790213</v>
+        <v>740020</v>
       </c>
       <c r="G16" t="n">
-        <v>358507</v>
+        <v>320425</v>
       </c>
       <c r="H16" t="n">
-        <v>2701462</v>
+        <v>2540554</v>
       </c>
       <c r="I16" t="n">
-        <v>303951</v>
+        <v>272598</v>
       </c>
     </row>
     <row r="17">
@@ -983,29 +983,29 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2014-4</t>
+          <t>2014-3</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>59635486</v>
+        <v>56395230</v>
       </c>
       <c r="D17" t="n">
-        <v>2642235</v>
+        <v>2602809</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>828620</v>
+        <v>790213</v>
       </c>
       <c r="G17" t="n">
-        <v>399668</v>
+        <v>358507</v>
       </c>
       <c r="H17" t="n">
-        <v>2764704</v>
+        <v>2701462</v>
       </c>
       <c r="I17" t="n">
-        <v>323391</v>
+        <v>303951</v>
       </c>
     </row>
     <row r="18">
@@ -1016,29 +1016,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2014-5</t>
+          <t>2014-4</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>62765184</v>
+        <v>59635486</v>
       </c>
       <c r="D18" t="n">
-        <v>2685488</v>
+        <v>2642235</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>894834</v>
+        <v>828620</v>
       </c>
       <c r="G18" t="n">
-        <v>446361</v>
+        <v>399668</v>
       </c>
       <c r="H18" t="n">
-        <v>2856957</v>
+        <v>2764704</v>
       </c>
       <c r="I18" t="n">
-        <v>348297</v>
+        <v>323391</v>
       </c>
     </row>
     <row r="19">
@@ -1049,29 +1049,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2014-6</t>
+          <t>2014-5</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>65656322</v>
+        <v>62765184</v>
       </c>
       <c r="D19" t="n">
-        <v>2708728</v>
+        <v>2685488</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>946524</v>
+        <v>894834</v>
       </c>
       <c r="G19" t="n">
-        <v>500454</v>
+        <v>446361</v>
       </c>
       <c r="H19" t="n">
-        <v>2893421</v>
+        <v>2856957</v>
       </c>
       <c r="I19" t="n">
-        <v>365179</v>
+        <v>348297</v>
       </c>
     </row>
     <row r="20">
@@ -1082,29 +1082,29 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2014-7</t>
+          <t>2014-6</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>68652592</v>
+        <v>65656322</v>
       </c>
       <c r="D20" t="n">
-        <v>2731075</v>
+        <v>2708728</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>988472</v>
+        <v>946524</v>
       </c>
       <c r="G20" t="n">
-        <v>541061</v>
+        <v>500454</v>
       </c>
       <c r="H20" t="n">
-        <v>3062064</v>
+        <v>2893421</v>
       </c>
       <c r="I20" t="n">
-        <v>393275</v>
+        <v>365179</v>
       </c>
     </row>
     <row r="21">
@@ -1115,29 +1115,29 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2014-8</t>
+          <t>2014-7</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>71231303</v>
+        <v>68652592</v>
       </c>
       <c r="D21" t="n">
-        <v>2753978</v>
+        <v>2731075</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1031136</v>
+        <v>988472</v>
       </c>
       <c r="G21" t="n">
-        <v>584417</v>
+        <v>541061</v>
       </c>
       <c r="H21" t="n">
-        <v>3208510</v>
+        <v>3062064</v>
       </c>
       <c r="I21" t="n">
-        <v>419750</v>
+        <v>393275</v>
       </c>
     </row>
     <row r="22">
@@ -1148,29 +1148,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2014-9</t>
+          <t>2014-8</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>74190101</v>
+        <v>71231303</v>
       </c>
       <c r="D22" t="n">
-        <v>2778728</v>
+        <v>2753978</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1070992</v>
+        <v>1031136</v>
       </c>
       <c r="G22" t="n">
-        <v>628402</v>
+        <v>584417</v>
       </c>
       <c r="H22" t="n">
-        <v>3340766</v>
+        <v>3208510</v>
       </c>
       <c r="I22" t="n">
-        <v>447182</v>
+        <v>419750</v>
       </c>
     </row>
     <row r="23">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2014-10</t>
+          <t>2014-9</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>77530930</v>
+        <v>74190101</v>
       </c>
       <c r="D23" t="n">
-        <v>2806529</v>
+        <v>2778728</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1126395</v>
+        <v>1070992</v>
       </c>
       <c r="G23" t="n">
-        <v>656196</v>
+        <v>628402</v>
       </c>
       <c r="H23" t="n">
-        <v>3420738</v>
+        <v>3340766</v>
       </c>
       <c r="I23" t="n">
-        <v>473569</v>
+        <v>447182</v>
       </c>
     </row>
     <row r="24">
@@ -1214,29 +1214,29 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2014-11</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>81149188</v>
+        <v>77530930</v>
       </c>
       <c r="D24" t="n">
-        <v>2971695</v>
+        <v>2806529</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1199182</v>
+        <v>1126395</v>
       </c>
       <c r="G24" t="n">
-        <v>671700</v>
+        <v>656196</v>
       </c>
       <c r="H24" t="n">
-        <v>3517344</v>
+        <v>3420738</v>
       </c>
       <c r="I24" t="n">
-        <v>503613</v>
+        <v>473569</v>
       </c>
     </row>
     <row r="25">
@@ -1247,29 +1247,29 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2014-12</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>85238179</v>
+        <v>81149188</v>
       </c>
       <c r="D25" t="n">
-        <v>3116565</v>
+        <v>2971695</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1310037</v>
+        <v>1199182</v>
       </c>
       <c r="G25" t="n">
-        <v>678691</v>
+        <v>671700</v>
       </c>
       <c r="H25" t="n">
-        <v>3618612</v>
+        <v>3517344</v>
       </c>
       <c r="I25" t="n">
-        <v>533906</v>
+        <v>503613</v>
       </c>
     </row>
     <row r="26">
@@ -1280,29 +1280,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2015-1</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>89935052</v>
+        <v>85238179</v>
       </c>
       <c r="D26" t="n">
-        <v>3302629</v>
+        <v>3116565</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1461203</v>
+        <v>1310037</v>
       </c>
       <c r="G26" t="n">
-        <v>688603</v>
+        <v>678691</v>
       </c>
       <c r="H26" t="n">
-        <v>3862472</v>
+        <v>3618612</v>
       </c>
       <c r="I26" t="n">
-        <v>566787</v>
+        <v>533906</v>
       </c>
     </row>
     <row r="27">
@@ -1313,29 +1313,29 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2015-2</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>94293330</v>
+        <v>1398153897</v>
       </c>
       <c r="D27" t="n">
-        <v>3506375</v>
+        <v>67811012</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1584131</v>
+        <v>18249623</v>
       </c>
       <c r="G27" t="n">
-        <v>708849</v>
+        <v>9751260</v>
       </c>
       <c r="H27" t="n">
-        <v>4067198</v>
+        <v>65855304</v>
       </c>
       <c r="I27" t="n">
-        <v>594779</v>
+        <v>7437016</v>
       </c>
     </row>
     <row r="28">
@@ -1346,29 +1346,29 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2015-3</t>
+          <t>2015-1</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>98324630</v>
+        <v>89935052</v>
       </c>
       <c r="D28" t="n">
-        <v>3716812</v>
+        <v>3302629</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1692441</v>
+        <v>1461203</v>
       </c>
       <c r="G28" t="n">
-        <v>744167</v>
+        <v>688603</v>
       </c>
       <c r="H28" t="n">
-        <v>4254886</v>
+        <v>3862472</v>
       </c>
       <c r="I28" t="n">
-        <v>628596</v>
+        <v>566787</v>
       </c>
     </row>
     <row r="29">
@@ -1379,29 +1379,29 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2015-4</t>
+          <t>2015-2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>101707595</v>
+        <v>94293330</v>
       </c>
       <c r="D29" t="n">
-        <v>3769373</v>
+        <v>3506375</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1793078</v>
+        <v>1584131</v>
       </c>
       <c r="G29" t="n">
-        <v>792416</v>
+        <v>708849</v>
       </c>
       <c r="H29" t="n">
-        <v>4436275</v>
+        <v>4067198</v>
       </c>
       <c r="I29" t="n">
-        <v>650437</v>
+        <v>594779</v>
       </c>
     </row>
     <row r="30">
@@ -1412,29 +1412,29 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2015-5</t>
+          <t>2015-3</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>104729799</v>
+        <v>98324630</v>
       </c>
       <c r="D30" t="n">
-        <v>3808666</v>
+        <v>3716812</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1896060</v>
+        <v>1692441</v>
       </c>
       <c r="G30" t="n">
-        <v>843104</v>
+        <v>744167</v>
       </c>
       <c r="H30" t="n">
-        <v>4603069</v>
+        <v>4254886</v>
       </c>
       <c r="I30" t="n">
-        <v>683061</v>
+        <v>628596</v>
       </c>
     </row>
     <row r="31">
@@ -1445,29 +1445,29 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2015-6</t>
+          <t>2015-4</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>107773158</v>
+        <v>101707595</v>
       </c>
       <c r="D31" t="n">
-        <v>3847419</v>
+        <v>3769373</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1965511</v>
+        <v>1793078</v>
       </c>
       <c r="G31" t="n">
-        <v>900426</v>
+        <v>792416</v>
       </c>
       <c r="H31" t="n">
-        <v>4655600</v>
+        <v>4436275</v>
       </c>
       <c r="I31" t="n">
-        <v>709380</v>
+        <v>650437</v>
       </c>
     </row>
     <row r="32">
@@ -1478,29 +1478,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2015-7</t>
+          <t>2015-5</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>110883642</v>
+        <v>104729799</v>
       </c>
       <c r="D32" t="n">
-        <v>3884781</v>
+        <v>3808666</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>2051291</v>
+        <v>1896060</v>
       </c>
       <c r="G32" t="n">
-        <v>959432</v>
+        <v>843104</v>
       </c>
       <c r="H32" t="n">
-        <v>4693777</v>
+        <v>4603069</v>
       </c>
       <c r="I32" t="n">
-        <v>740165</v>
+        <v>683061</v>
       </c>
     </row>
     <row r="33">
@@ -1511,29 +1511,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2015-8</t>
+          <t>2015-6</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>113598070</v>
+        <v>107773158</v>
       </c>
       <c r="D33" t="n">
-        <v>3920079</v>
+        <v>3847419</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>2127456</v>
+        <v>1965511</v>
       </c>
       <c r="G33" t="n">
-        <v>1011693</v>
+        <v>900426</v>
       </c>
       <c r="H33" t="n">
-        <v>4729111</v>
+        <v>4655600</v>
       </c>
       <c r="I33" t="n">
-        <v>771462</v>
+        <v>709380</v>
       </c>
     </row>
     <row r="34">
@@ -1544,29 +1544,29 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2015-9</t>
+          <t>2015-7</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>116696649</v>
+        <v>110883642</v>
       </c>
       <c r="D34" t="n">
-        <v>3951830</v>
+        <v>3884781</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>2255383</v>
+        <v>2051291</v>
       </c>
       <c r="G34" t="n">
-        <v>1055103</v>
+        <v>959432</v>
       </c>
       <c r="H34" t="n">
-        <v>4827321</v>
+        <v>4693777</v>
       </c>
       <c r="I34" t="n">
-        <v>799664</v>
+        <v>740165</v>
       </c>
     </row>
     <row r="35">
@@ -1577,29 +1577,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2015-10</t>
+          <t>2015-8</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>120332858</v>
+        <v>113598070</v>
       </c>
       <c r="D35" t="n">
-        <v>3993970</v>
+        <v>3920079</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>2346403</v>
+        <v>2127456</v>
       </c>
       <c r="G35" t="n">
-        <v>1082818</v>
+        <v>1011693</v>
       </c>
       <c r="H35" t="n">
-        <v>4907066</v>
+        <v>4729111</v>
       </c>
       <c r="I35" t="n">
-        <v>822442</v>
+        <v>771462</v>
       </c>
     </row>
     <row r="36">
@@ -1610,29 +1610,29 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2015-11</t>
+          <t>2015-9</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>124160908</v>
+        <v>116696649</v>
       </c>
       <c r="D36" t="n">
-        <v>4152347</v>
+        <v>3951830</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>2526070</v>
+        <v>2255383</v>
       </c>
       <c r="G36" t="n">
-        <v>1100967</v>
+        <v>1055103</v>
       </c>
       <c r="H36" t="n">
-        <v>4981569</v>
+        <v>4827321</v>
       </c>
       <c r="I36" t="n">
-        <v>853810</v>
+        <v>799664</v>
       </c>
     </row>
     <row r="37">
@@ -1643,29 +1643,29 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2015-12</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>128310569</v>
+        <v>120332858</v>
       </c>
       <c r="D37" t="n">
-        <v>4317863</v>
+        <v>3993970</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>2700983</v>
+        <v>2346403</v>
       </c>
       <c r="G37" t="n">
-        <v>1118461</v>
+        <v>1082818</v>
       </c>
       <c r="H37" t="n">
-        <v>5096757</v>
+        <v>4907066</v>
       </c>
       <c r="I37" t="n">
-        <v>887324</v>
+        <v>822442</v>
       </c>
     </row>
     <row r="38">
@@ -1676,29 +1676,29 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2016-1</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>132779747</v>
+        <v>124160908</v>
       </c>
       <c r="D38" t="n">
-        <v>4532296</v>
+        <v>4152347</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>2909242</v>
+        <v>2526070</v>
       </c>
       <c r="G38" t="n">
-        <v>1131133</v>
+        <v>1100967</v>
       </c>
       <c r="H38" t="n">
-        <v>5291402</v>
+        <v>4981569</v>
       </c>
       <c r="I38" t="n">
-        <v>917250</v>
+        <v>853810</v>
       </c>
     </row>
     <row r="39">
@@ -1709,29 +1709,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2016-2</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>136923890</v>
+        <v>128310569</v>
       </c>
       <c r="D39" t="n">
-        <v>4719532</v>
+        <v>4317863</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>3131417</v>
+        <v>2700983</v>
       </c>
       <c r="G39" t="n">
-        <v>1146538</v>
+        <v>1118461</v>
       </c>
       <c r="H39" t="n">
-        <v>5566341</v>
+        <v>5096757</v>
       </c>
       <c r="I39" t="n">
-        <v>945155</v>
+        <v>887324</v>
       </c>
     </row>
     <row r="40">
@@ -1742,29 +1742,29 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2016-3</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>141157044</v>
+        <v>4107054054</v>
       </c>
       <c r="D40" t="n">
-        <v>4905927</v>
+        <v>181794168</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>3314468</v>
+        <v>60899256</v>
       </c>
       <c r="G40" t="n">
-        <v>1181298</v>
+        <v>30508559</v>
       </c>
       <c r="H40" t="n">
-        <v>5782590</v>
+        <v>186825709</v>
       </c>
       <c r="I40" t="n">
-        <v>977578</v>
+        <v>23581939</v>
       </c>
     </row>
     <row r="41">
@@ -1775,29 +1775,29 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2016-4</t>
+          <t>2016-1</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>144625064</v>
+        <v>132779747</v>
       </c>
       <c r="D41" t="n">
-        <v>4945735</v>
+        <v>4532296</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>3419009</v>
+        <v>2909242</v>
       </c>
       <c r="G41" t="n">
-        <v>1220922</v>
+        <v>1131133</v>
       </c>
       <c r="H41" t="n">
-        <v>5986526</v>
+        <v>5291402</v>
       </c>
       <c r="I41" t="n">
-        <v>1007396</v>
+        <v>917250</v>
       </c>
     </row>
     <row r="42">
@@ -1808,29 +1808,29 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2016-5</t>
+          <t>2016-2</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>147821283</v>
+        <v>136923890</v>
       </c>
       <c r="D42" t="n">
-        <v>4989913</v>
+        <v>4719532</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>3543451</v>
+        <v>3131417</v>
       </c>
       <c r="G42" t="n">
-        <v>1267870</v>
+        <v>1146538</v>
       </c>
       <c r="H42" t="n">
-        <v>6219089</v>
+        <v>5566341</v>
       </c>
       <c r="I42" t="n">
-        <v>1034977</v>
+        <v>945155</v>
       </c>
     </row>
     <row r="43">
@@ -1841,29 +1841,29 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2016-6</t>
+          <t>2016-3</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>150813074</v>
+        <v>141157044</v>
       </c>
       <c r="D43" t="n">
-        <v>5025913</v>
+        <v>4905927</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>3617321</v>
+        <v>3314468</v>
       </c>
       <c r="G43" t="n">
-        <v>1314412</v>
+        <v>1181298</v>
       </c>
       <c r="H43" t="n">
-        <v>6484687</v>
+        <v>5782590</v>
       </c>
       <c r="I43" t="n">
-        <v>1063243</v>
+        <v>977578</v>
       </c>
     </row>
     <row r="44">
@@ -1874,29 +1874,29 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2016-7</t>
+          <t>2016-4</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>153808189</v>
+        <v>144625064</v>
       </c>
       <c r="D44" t="n">
-        <v>5067763</v>
+        <v>4945735</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>3674475</v>
+        <v>3419009</v>
       </c>
       <c r="G44" t="n">
-        <v>1374040</v>
+        <v>1220922</v>
       </c>
       <c r="H44" t="n">
-        <v>6562220</v>
+        <v>5986526</v>
       </c>
       <c r="I44" t="n">
-        <v>1098260</v>
+        <v>1007396</v>
       </c>
     </row>
     <row r="45">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2016-8</t>
+          <t>2016-5</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>156658943</v>
+        <v>147821283</v>
       </c>
       <c r="D45" t="n">
-        <v>5102791</v>
+        <v>4989913</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>3739634</v>
+        <v>3543451</v>
       </c>
       <c r="G45" t="n">
-        <v>1433072</v>
+        <v>1267870</v>
       </c>
       <c r="H45" t="n">
-        <v>6600999</v>
+        <v>6219089</v>
       </c>
       <c r="I45" t="n">
-        <v>1133692</v>
+        <v>1034977</v>
       </c>
     </row>
     <row r="46">
@@ -1940,29 +1940,29 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2016-9</t>
+          <t>2016-6</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>159733544</v>
+        <v>150813074</v>
       </c>
       <c r="D46" t="n">
-        <v>5141480</v>
+        <v>5025913</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>3812879</v>
+        <v>3617321</v>
       </c>
       <c r="G46" t="n">
-        <v>1477883</v>
+        <v>1314412</v>
       </c>
       <c r="H46" t="n">
-        <v>6703357</v>
+        <v>6484687</v>
       </c>
       <c r="I46" t="n">
-        <v>1161852</v>
+        <v>1063243</v>
       </c>
     </row>
     <row r="47">
@@ -1973,29 +1973,29 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2016-10</t>
+          <t>2016-7</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>163337678</v>
+        <v>153808189</v>
       </c>
       <c r="D47" t="n">
-        <v>5233452</v>
+        <v>5067763</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>3944254</v>
+        <v>3674475</v>
       </c>
       <c r="G47" t="n">
-        <v>1520005</v>
+        <v>1374040</v>
       </c>
       <c r="H47" t="n">
-        <v>6768519</v>
+        <v>6562220</v>
       </c>
       <c r="I47" t="n">
-        <v>1184229</v>
+        <v>1098260</v>
       </c>
     </row>
     <row r="48">
@@ -2006,29 +2006,29 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2016-11</t>
+          <t>2016-8</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>167422510</v>
+        <v>156658943</v>
       </c>
       <c r="D48" t="n">
-        <v>5420659</v>
+        <v>5102791</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>4131297</v>
+        <v>3739634</v>
       </c>
       <c r="G48" t="n">
-        <v>1534459</v>
+        <v>1433072</v>
       </c>
       <c r="H48" t="n">
-        <v>6886232</v>
+        <v>6600999</v>
       </c>
       <c r="I48" t="n">
-        <v>1211723</v>
+        <v>1133692</v>
       </c>
     </row>
     <row r="49">
@@ -2039,29 +2039,29 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2016-12</t>
+          <t>2016-9</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>172087228</v>
+        <v>159733544</v>
       </c>
       <c r="D49" t="n">
-        <v>5633313</v>
+        <v>5141480</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>4260098</v>
+        <v>3812879</v>
       </c>
       <c r="G49" t="n">
-        <v>1550139</v>
+        <v>1477883</v>
       </c>
       <c r="H49" t="n">
-        <v>6993457</v>
+        <v>6703357</v>
       </c>
       <c r="I49" t="n">
-        <v>1240065</v>
+        <v>1161852</v>
       </c>
     </row>
     <row r="50">
@@ -2072,29 +2072,29 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2017-1</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>177299544</v>
+        <v>163337678</v>
       </c>
       <c r="D50" t="n">
-        <v>5889377</v>
+        <v>5233452</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>4444394</v>
+        <v>3944254</v>
       </c>
       <c r="G50" t="n">
-        <v>1564612</v>
+        <v>1520005</v>
       </c>
       <c r="H50" t="n">
-        <v>7117654</v>
+        <v>6768519</v>
       </c>
       <c r="I50" t="n">
-        <v>1272438</v>
+        <v>1184229</v>
       </c>
     </row>
     <row r="51">
@@ -2105,29 +2105,29 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2017-2</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>181276093</v>
+        <v>167422510</v>
       </c>
       <c r="D51" t="n">
-        <v>6068199</v>
+        <v>5420659</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>4659319</v>
+        <v>4131297</v>
       </c>
       <c r="G51" t="n">
-        <v>1585411</v>
+        <v>1534459</v>
       </c>
       <c r="H51" t="n">
-        <v>7257027</v>
+        <v>6886232</v>
       </c>
       <c r="I51" t="n">
-        <v>1303193</v>
+        <v>1211723</v>
       </c>
     </row>
     <row r="52">
@@ -2138,29 +2138,29 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2017-3</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>185139818</v>
+        <v>172087228</v>
       </c>
       <c r="D52" t="n">
-        <v>6226564</v>
+        <v>5633313</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>4896581</v>
+        <v>4260098</v>
       </c>
       <c r="G52" t="n">
-        <v>1621239</v>
+        <v>1550139</v>
       </c>
       <c r="H52" t="n">
-        <v>7452352</v>
+        <v>6993457</v>
       </c>
       <c r="I52" t="n">
-        <v>1337416</v>
+        <v>1240065</v>
       </c>
     </row>
     <row r="53">
@@ -2171,29 +2171,29 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2017-4</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>188502196</v>
+        <v>10041276302</v>
       </c>
       <c r="D53" t="n">
-        <v>6281203</v>
+        <v>424307110</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>5027752</v>
+        <v>165296057</v>
       </c>
       <c r="G53" t="n">
-        <v>1678122</v>
+        <v>77168889</v>
       </c>
       <c r="H53" t="n">
-        <v>7527603</v>
+        <v>449496837</v>
       </c>
       <c r="I53" t="n">
-        <v>1371621</v>
+        <v>60139298</v>
       </c>
     </row>
     <row r="54">
@@ -2204,29 +2204,29 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2017-5</t>
+          <t>2017-1</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>191766723</v>
+        <v>177299544</v>
       </c>
       <c r="D54" t="n">
-        <v>6341902</v>
+        <v>5889377</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>5177506</v>
+        <v>4444394</v>
       </c>
       <c r="G54" t="n">
-        <v>1738048</v>
+        <v>1564612</v>
       </c>
       <c r="H54" t="n">
-        <v>7626480</v>
+        <v>7117654</v>
       </c>
       <c r="I54" t="n">
-        <v>1399437</v>
+        <v>1272438</v>
       </c>
     </row>
     <row r="55">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2017-6</t>
+          <t>2017-2</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>194789233</v>
+        <v>181276093</v>
       </c>
       <c r="D55" t="n">
-        <v>6388941</v>
+        <v>6068199</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>5318761</v>
+        <v>4659319</v>
       </c>
       <c r="G55" t="n">
-        <v>1803639</v>
+        <v>1585411</v>
       </c>
       <c r="H55" t="n">
-        <v>7684982</v>
+        <v>7257027</v>
       </c>
       <c r="I55" t="n">
-        <v>1432056</v>
+        <v>1303193</v>
       </c>
     </row>
     <row r="56">
@@ -2270,29 +2270,29 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2017-7</t>
+          <t>2017-3</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>197859741</v>
+        <v>185139818</v>
       </c>
       <c r="D56" t="n">
-        <v>6436953</v>
+        <v>6226564</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>5463842</v>
+        <v>4896581</v>
       </c>
       <c r="G56" t="n">
-        <v>1861151</v>
+        <v>1621239</v>
       </c>
       <c r="H56" t="n">
-        <v>7729262</v>
+        <v>7452352</v>
       </c>
       <c r="I56" t="n">
-        <v>1464327</v>
+        <v>1337416</v>
       </c>
     </row>
     <row r="57">
@@ -2303,29 +2303,29 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2017-8</t>
+          <t>2017-4</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>200605482</v>
+        <v>188502196</v>
       </c>
       <c r="D57" t="n">
-        <v>6477963</v>
+        <v>6281203</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>5567260</v>
+        <v>5027752</v>
       </c>
       <c r="G57" t="n">
-        <v>1917092</v>
+        <v>1678122</v>
       </c>
       <c r="H57" t="n">
-        <v>7772559</v>
+        <v>7527603</v>
       </c>
       <c r="I57" t="n">
-        <v>1495874</v>
+        <v>1371621</v>
       </c>
     </row>
     <row r="58">
@@ -2336,29 +2336,29 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2017-9</t>
+          <t>2017-5</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>203690628</v>
+        <v>191766723</v>
       </c>
       <c r="D58" t="n">
-        <v>6518512</v>
+        <v>6341902</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>5711014</v>
+        <v>5177506</v>
       </c>
       <c r="G58" t="n">
-        <v>1959322</v>
+        <v>1738048</v>
       </c>
       <c r="H58" t="n">
-        <v>7891784</v>
+        <v>7626480</v>
       </c>
       <c r="I58" t="n">
-        <v>1529443</v>
+        <v>1399437</v>
       </c>
     </row>
     <row r="59">
@@ -2369,29 +2369,29 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2017-10</t>
+          <t>2017-6</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>207174820</v>
+        <v>194789233</v>
       </c>
       <c r="D59" t="n">
-        <v>6607410</v>
+        <v>6388941</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>5891976</v>
+        <v>5318761</v>
       </c>
       <c r="G59" t="n">
-        <v>1994941</v>
+        <v>1803639</v>
       </c>
       <c r="H59" t="n">
-        <v>7977691</v>
+        <v>7684982</v>
       </c>
       <c r="I59" t="n">
-        <v>1555416</v>
+        <v>1432056</v>
       </c>
     </row>
     <row r="60">
@@ -2402,29 +2402,29 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2017-11</t>
+          <t>2017-7</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>211346223</v>
+        <v>197859741</v>
       </c>
       <c r="D60" t="n">
-        <v>6814789</v>
+        <v>6436953</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>6142899</v>
+        <v>5463842</v>
       </c>
       <c r="G60" t="n">
-        <v>2011466</v>
+        <v>1861151</v>
       </c>
       <c r="H60" t="n">
-        <v>8080436</v>
+        <v>7729262</v>
       </c>
       <c r="I60" t="n">
-        <v>1590124</v>
+        <v>1464327</v>
       </c>
     </row>
     <row r="61">
@@ -2435,29 +2435,29 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2017-12</t>
+          <t>2017-8</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>215964587</v>
+        <v>200605482</v>
       </c>
       <c r="D61" t="n">
-        <v>7067623</v>
+        <v>6477963</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>6462867</v>
+        <v>5567260</v>
       </c>
       <c r="G61" t="n">
-        <v>2020573</v>
+        <v>1917092</v>
       </c>
       <c r="H61" t="n">
-        <v>8289499</v>
+        <v>7772559</v>
       </c>
       <c r="I61" t="n">
-        <v>1627519</v>
+        <v>1495874</v>
       </c>
     </row>
     <row r="62">
@@ -2468,29 +2468,29 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2018-1</t>
+          <t>2017-9</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>220285952</v>
+        <v>203690628</v>
       </c>
       <c r="D62" t="n">
-        <v>7309188</v>
+        <v>6518512</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>6862398</v>
+        <v>5711014</v>
       </c>
       <c r="G62" t="n">
-        <v>2029410</v>
+        <v>1959322</v>
       </c>
       <c r="H62" t="n">
-        <v>8641798</v>
+        <v>7891784</v>
       </c>
       <c r="I62" t="n">
-        <v>1668891</v>
+        <v>1529443</v>
       </c>
     </row>
     <row r="63">
@@ -2501,29 +2501,29 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2018-2</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>224736359</v>
+        <v>207174820</v>
       </c>
       <c r="D63" t="n">
-        <v>7534202</v>
+        <v>6607410</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>7090097</v>
+        <v>5891976</v>
       </c>
       <c r="G63" t="n">
-        <v>2052536</v>
+        <v>1994941</v>
       </c>
       <c r="H63" t="n">
-        <v>8917010</v>
+        <v>7977691</v>
       </c>
       <c r="I63" t="n">
-        <v>1705108</v>
+        <v>1555416</v>
       </c>
     </row>
     <row r="64">
@@ -2534,29 +2534,29 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2018-3</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>229103400</v>
+        <v>211346223</v>
       </c>
       <c r="D64" t="n">
-        <v>7772219</v>
+        <v>6814789</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>7377236</v>
+        <v>6142899</v>
       </c>
       <c r="G64" t="n">
-        <v>2088347</v>
+        <v>2011466</v>
       </c>
       <c r="H64" t="n">
-        <v>9157763</v>
+        <v>8080436</v>
       </c>
       <c r="I64" t="n">
-        <v>1746391</v>
+        <v>1590124</v>
       </c>
     </row>
     <row r="65">
@@ -2567,29 +2567,29 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2018-4</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>232341696</v>
+        <v>215964587</v>
       </c>
       <c r="D65" t="n">
-        <v>7805500</v>
+        <v>7067623</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>7605366</v>
+        <v>6462867</v>
       </c>
       <c r="G65" t="n">
-        <v>2144059</v>
+        <v>2020573</v>
       </c>
       <c r="H65" t="n">
-        <v>9320670</v>
+        <v>8289499</v>
       </c>
       <c r="I65" t="n">
-        <v>1786182</v>
+        <v>1627519</v>
       </c>
     </row>
     <row r="66">
@@ -2600,29 +2600,29 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2018-5</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>235436823</v>
+        <v>22437967692</v>
       </c>
       <c r="D66" t="n">
-        <v>7845488</v>
+        <v>925733656</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>7742291</v>
+        <v>395356285</v>
       </c>
       <c r="G66" t="n">
-        <v>2209770</v>
+        <v>176093394</v>
       </c>
       <c r="H66" t="n">
-        <v>9413311</v>
+        <v>991401003</v>
       </c>
       <c r="I66" t="n">
-        <v>1825253</v>
+        <v>137657460</v>
       </c>
     </row>
     <row r="67">
@@ -2633,29 +2633,29 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2018-6</t>
+          <t>2018-1</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>238417853</v>
+        <v>220285952</v>
       </c>
       <c r="D67" t="n">
-        <v>7881696</v>
+        <v>7309188</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>7874944</v>
+        <v>6862398</v>
       </c>
       <c r="G67" t="n">
-        <v>2288229</v>
+        <v>2029410</v>
       </c>
       <c r="H67" t="n">
-        <v>9535774</v>
+        <v>8641798</v>
       </c>
       <c r="I67" t="n">
-        <v>1867648</v>
+        <v>1668891</v>
       </c>
     </row>
     <row r="68">
@@ -2666,29 +2666,29 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2018-7</t>
+          <t>2018-2</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>241479912</v>
+        <v>224736359</v>
       </c>
       <c r="D68" t="n">
-        <v>7920358</v>
+        <v>7534202</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>7969937</v>
+        <v>7090097</v>
       </c>
       <c r="G68" t="n">
-        <v>2371966</v>
+        <v>2052536</v>
       </c>
       <c r="H68" t="n">
-        <v>9571517</v>
+        <v>8917010</v>
       </c>
       <c r="I68" t="n">
-        <v>1912255</v>
+        <v>1705108</v>
       </c>
     </row>
     <row r="69">
@@ -2699,29 +2699,29 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2018-8</t>
+          <t>2018-3</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>244288950</v>
+        <v>229103400</v>
       </c>
       <c r="D69" t="n">
-        <v>7962020</v>
+        <v>7772219</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>8100311</v>
+        <v>7377236</v>
       </c>
       <c r="G69" t="n">
-        <v>2449156</v>
+        <v>2088347</v>
       </c>
       <c r="H69" t="n">
-        <v>9609619</v>
+        <v>9157763</v>
       </c>
       <c r="I69" t="n">
-        <v>1955651</v>
+        <v>1746391</v>
       </c>
     </row>
     <row r="70">
@@ -2732,29 +2732,29 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2018-9</t>
+          <t>2018-4</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>247255672</v>
+        <v>232341696</v>
       </c>
       <c r="D70" t="n">
-        <v>8051306</v>
+        <v>7805500</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>8244789</v>
+        <v>7605366</v>
       </c>
       <c r="G70" t="n">
-        <v>2517397</v>
+        <v>2144059</v>
       </c>
       <c r="H70" t="n">
-        <v>9729327</v>
+        <v>9320670</v>
       </c>
       <c r="I70" t="n">
-        <v>2000515</v>
+        <v>1786182</v>
       </c>
     </row>
     <row r="71">
@@ -2765,29 +2765,29 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2018-10</t>
+          <t>2018-5</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>250672822</v>
+        <v>235436823</v>
       </c>
       <c r="D71" t="n">
-        <v>8137589</v>
+        <v>7845488</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>8474252</v>
+        <v>7742291</v>
       </c>
       <c r="G71" t="n">
-        <v>2566233</v>
+        <v>2209770</v>
       </c>
       <c r="H71" t="n">
-        <v>9767924</v>
+        <v>9413311</v>
       </c>
       <c r="I71" t="n">
-        <v>2057582</v>
+        <v>1825253</v>
       </c>
     </row>
     <row r="72">
@@ -2798,29 +2798,29 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2018-11</t>
+          <t>2018-6</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>254615445</v>
+        <v>238417853</v>
       </c>
       <c r="D72" t="n">
-        <v>8356558</v>
+        <v>7881696</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>8717383</v>
+        <v>7874944</v>
       </c>
       <c r="G72" t="n">
-        <v>2593785</v>
+        <v>2288229</v>
       </c>
       <c r="H72" t="n">
-        <v>9788904</v>
+        <v>9535774</v>
       </c>
       <c r="I72" t="n">
-        <v>2120434</v>
+        <v>1867648</v>
       </c>
     </row>
     <row r="73">
@@ -2831,29 +2831,29 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2018-12</t>
+          <t>2018-7</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>258794235</v>
+        <v>241479912</v>
       </c>
       <c r="D73" t="n">
-        <v>8618296</v>
+        <v>7920358</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>9084771</v>
+        <v>7969937</v>
       </c>
       <c r="G73" t="n">
-        <v>2604590</v>
+        <v>2371966</v>
       </c>
       <c r="H73" t="n">
-        <v>9933626</v>
+        <v>9571517</v>
       </c>
       <c r="I73" t="n">
-        <v>2175274</v>
+        <v>1912255</v>
       </c>
     </row>
     <row r="74">
@@ -2864,29 +2864,29 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2019-1</t>
+          <t>2018-8</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>263613888</v>
+        <v>244288950</v>
       </c>
       <c r="D74" t="n">
-        <v>8871367</v>
+        <v>7962020</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>9331319</v>
+        <v>8100311</v>
       </c>
       <c r="G74" t="n">
-        <v>2623215</v>
+        <v>2449156</v>
       </c>
       <c r="H74" t="n">
-        <v>10132276</v>
+        <v>9609619</v>
       </c>
       <c r="I74" t="n">
-        <v>2221048</v>
+        <v>1955651</v>
       </c>
     </row>
     <row r="75">
@@ -2897,29 +2897,29 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2019-2</t>
+          <t>2018-9</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>267648841</v>
+        <v>247255672</v>
       </c>
       <c r="D75" t="n">
-        <v>9102059</v>
+        <v>8051306</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>9590455</v>
+        <v>8244789</v>
       </c>
       <c r="G75" t="n">
-        <v>2669527</v>
+        <v>2517397</v>
       </c>
       <c r="H75" t="n">
-        <v>10326430</v>
+        <v>9729327</v>
       </c>
       <c r="I75" t="n">
-        <v>2281727</v>
+        <v>2000515</v>
       </c>
     </row>
     <row r="76">
@@ -2930,29 +2930,29 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2019-3</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>271635215</v>
+        <v>250672822</v>
       </c>
       <c r="D76" t="n">
-        <v>9302708</v>
+        <v>8137589</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>10063808</v>
+        <v>8474252</v>
       </c>
       <c r="G76" t="n">
-        <v>2733949</v>
+        <v>2566233</v>
       </c>
       <c r="H76" t="n">
-        <v>10564900</v>
+        <v>9767924</v>
       </c>
       <c r="I76" t="n">
-        <v>2352330</v>
+        <v>2057582</v>
       </c>
     </row>
     <row r="77">
@@ -2963,29 +2963,29 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2019-4</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>275087204</v>
+        <v>254615445</v>
       </c>
       <c r="D77" t="n">
-        <v>9389409</v>
+        <v>8356558</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>10294694</v>
+        <v>8717383</v>
       </c>
       <c r="G77" t="n">
-        <v>2803782</v>
+        <v>2593785</v>
       </c>
       <c r="H77" t="n">
-        <v>10710483</v>
+        <v>9788904</v>
       </c>
       <c r="I77" t="n">
-        <v>2420749</v>
+        <v>2120434</v>
       </c>
     </row>
     <row r="78">
@@ -2996,29 +2996,29 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2019-5</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>278430135</v>
+        <v>258794235</v>
       </c>
       <c r="D78" t="n">
-        <v>9428111</v>
+        <v>8618296</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>10538807</v>
+        <v>9084771</v>
       </c>
       <c r="G78" t="n">
-        <v>2888993</v>
+        <v>2604590</v>
       </c>
       <c r="H78" t="n">
-        <v>10850646</v>
+        <v>9933626</v>
       </c>
       <c r="I78" t="n">
-        <v>2472934</v>
+        <v>2175274</v>
       </c>
     </row>
     <row r="79">
@@ -3029,29 +3029,29 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2019-6</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>281391099</v>
+        <v>47753364503</v>
       </c>
       <c r="D79" t="n">
-        <v>9462545</v>
+        <v>1946661732</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>10737015</v>
+        <v>885856345</v>
       </c>
       <c r="G79" t="n">
-        <v>2979177</v>
+        <v>380102266</v>
       </c>
       <c r="H79" t="n">
-        <v>10926719</v>
+        <v>2096189249</v>
       </c>
       <c r="I79" t="n">
-        <v>2515626</v>
+        <v>298136104</v>
       </c>
     </row>
     <row r="80">
@@ -3062,29 +3062,29 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2019-7</t>
+          <t>2019-1</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>284459384</v>
+        <v>263613888</v>
       </c>
       <c r="D80" t="n">
-        <v>9501925</v>
+        <v>8871367</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>10924012</v>
+        <v>9331319</v>
       </c>
       <c r="G80" t="n">
-        <v>3080126</v>
+        <v>2623215</v>
       </c>
       <c r="H80" t="n">
-        <v>10959261</v>
+        <v>10132276</v>
       </c>
       <c r="I80" t="n">
-        <v>2557527</v>
+        <v>2221048</v>
       </c>
     </row>
     <row r="81">
@@ -3095,29 +3095,29 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2019-8</t>
+          <t>2019-2</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>287091959</v>
+        <v>267648841</v>
       </c>
       <c r="D81" t="n">
-        <v>9563144</v>
+        <v>9102059</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>11085960</v>
+        <v>9590455</v>
       </c>
       <c r="G81" t="n">
-        <v>3171334</v>
+        <v>2669527</v>
       </c>
       <c r="H81" t="n">
-        <v>11018493</v>
+        <v>10326430</v>
       </c>
       <c r="I81" t="n">
-        <v>2594037</v>
+        <v>2281727</v>
       </c>
     </row>
     <row r="82">
@@ -3128,29 +3128,29 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2019-9</t>
+          <t>2019-3</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>290050277</v>
+        <v>271635215</v>
       </c>
       <c r="D82" t="n">
-        <v>9644133</v>
+        <v>9302708</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>11356349</v>
+        <v>10063808</v>
       </c>
       <c r="G82" t="n">
-        <v>3249677</v>
+        <v>2733949</v>
       </c>
       <c r="H82" t="n">
-        <v>11096442</v>
+        <v>10564900</v>
       </c>
       <c r="I82" t="n">
-        <v>2627391</v>
+        <v>2352330</v>
       </c>
     </row>
     <row r="83">
@@ -3161,29 +3161,29 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2019-10</t>
+          <t>2019-4</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>293420659</v>
+        <v>275087204</v>
       </c>
       <c r="D83" t="n">
-        <v>9713420</v>
+        <v>9389409</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>11724890</v>
+        <v>10294694</v>
       </c>
       <c r="G83" t="n">
-        <v>3292449</v>
+        <v>2803782</v>
       </c>
       <c r="H83" t="n">
-        <v>11246577</v>
+        <v>10710483</v>
       </c>
       <c r="I83" t="n">
-        <v>2663255</v>
+        <v>2420749</v>
       </c>
     </row>
     <row r="84">
@@ -3194,29 +3194,29 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2019-11</t>
+          <t>2019-5</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>297292675</v>
+        <v>278430135</v>
       </c>
       <c r="D84" t="n">
-        <v>9945766</v>
+        <v>9428111</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>12100786</v>
+        <v>10538807</v>
       </c>
       <c r="G84" t="n">
-        <v>3318636</v>
+        <v>2888993</v>
       </c>
       <c r="H84" t="n">
-        <v>11428238</v>
+        <v>10850646</v>
       </c>
       <c r="I84" t="n">
-        <v>2699762</v>
+        <v>2472934</v>
       </c>
     </row>
     <row r="85">
@@ -3227,29 +3227,29 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2019-12</t>
+          <t>2019-6</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>301360698</v>
+        <v>281391099</v>
       </c>
       <c r="D85" t="n">
-        <v>10183036</v>
+        <v>9462545</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>12623640</v>
+        <v>10737015</v>
       </c>
       <c r="G85" t="n">
-        <v>3344563</v>
+        <v>2979177</v>
       </c>
       <c r="H85" t="n">
-        <v>11719840</v>
+        <v>10926719</v>
       </c>
       <c r="I85" t="n">
-        <v>2747483</v>
+        <v>2515626</v>
       </c>
     </row>
     <row r="86">
@@ -3260,29 +3260,29 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2020-1</t>
+          <t>2019-7</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>305749579</v>
+        <v>284459384</v>
       </c>
       <c r="D86" t="n">
-        <v>10436165</v>
+        <v>9501925</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>13041083</v>
+        <v>10924012</v>
       </c>
       <c r="G86" t="n">
-        <v>3372609</v>
+        <v>3080126</v>
       </c>
       <c r="H86" t="n">
-        <v>11906380</v>
+        <v>10959261</v>
       </c>
       <c r="I86" t="n">
-        <v>2811731</v>
+        <v>2557527</v>
       </c>
     </row>
     <row r="87">
@@ -3293,29 +3293,29 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2020-2</t>
+          <t>2019-8</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>309631058</v>
+        <v>287091959</v>
       </c>
       <c r="D87" t="n">
-        <v>10653891</v>
+        <v>9563144</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>13629884</v>
+        <v>11085960</v>
       </c>
       <c r="G87" t="n">
-        <v>3412272</v>
+        <v>3171334</v>
       </c>
       <c r="H87" t="n">
-        <v>12167633</v>
+        <v>11018493</v>
       </c>
       <c r="I87" t="n">
-        <v>2879117</v>
+        <v>2594037</v>
       </c>
     </row>
     <row r="88">
@@ -3326,29 +3326,29 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2020-3</t>
+          <t>2019-9</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>313228271</v>
+        <v>290050277</v>
       </c>
       <c r="D88" t="n">
-        <v>10883527</v>
+        <v>9644133</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>14062753</v>
+        <v>11356349</v>
       </c>
       <c r="G88" t="n">
-        <v>3476097</v>
+        <v>3249677</v>
       </c>
       <c r="H88" t="n">
-        <v>12411389</v>
+        <v>11096442</v>
       </c>
       <c r="I88" t="n">
-        <v>2946299</v>
+        <v>2627391</v>
       </c>
     </row>
     <row r="89">
@@ -3359,29 +3359,29 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2020-4</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>315971834</v>
+        <v>293420659</v>
       </c>
       <c r="D89" t="n">
-        <v>10925306</v>
+        <v>9713420</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>14295942</v>
+        <v>11724890</v>
       </c>
       <c r="G89" t="n">
-        <v>3562612</v>
+        <v>3292449</v>
       </c>
       <c r="H89" t="n">
-        <v>12482504</v>
+        <v>11246577</v>
       </c>
       <c r="I89" t="n">
-        <v>3011887</v>
+        <v>2663255</v>
       </c>
     </row>
     <row r="90">
@@ -3392,29 +3392,29 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2020-5</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>318864089</v>
+        <v>297292675</v>
       </c>
       <c r="D90" t="n">
-        <v>10989573</v>
+        <v>9945766</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>14578294</v>
+        <v>12100786</v>
       </c>
       <c r="G90" t="n">
-        <v>3657979</v>
+        <v>3318636</v>
       </c>
       <c r="H90" t="n">
-        <v>12563780</v>
+        <v>11428238</v>
       </c>
       <c r="I90" t="n">
-        <v>3080615</v>
+        <v>2699762</v>
       </c>
     </row>
     <row r="91">
@@ -3425,29 +3425,29 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2020-6</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>321632796</v>
+        <v>301360698</v>
       </c>
       <c r="D91" t="n">
-        <v>11073251</v>
+        <v>10183036</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>14768148</v>
+        <v>12623640</v>
       </c>
       <c r="G91" t="n">
-        <v>3743552</v>
+        <v>3344563</v>
       </c>
       <c r="H91" t="n">
-        <v>12647419</v>
+        <v>11719840</v>
       </c>
       <c r="I91" t="n">
-        <v>3144568</v>
+        <v>2747483</v>
       </c>
     </row>
     <row r="92">
@@ -3458,29 +3458,29 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2020-7</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>324527926</v>
+        <v>98898211040</v>
       </c>
       <c r="D92" t="n">
-        <v>11120966</v>
+        <v>4007431087</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>14941314</v>
+        <v>1902084425</v>
       </c>
       <c r="G92" t="n">
-        <v>3847291</v>
+        <v>796359960</v>
       </c>
       <c r="H92" t="n">
-        <v>12695857</v>
+        <v>4323358803</v>
       </c>
       <c r="I92" t="n">
-        <v>3219789</v>
+        <v>626426077</v>
       </c>
     </row>
     <row r="93">
@@ -3491,29 +3491,29 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2020-8</t>
+          <t>2020-1</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>327240982</v>
+        <v>305749579</v>
       </c>
       <c r="D93" t="n">
-        <v>11155671</v>
+        <v>10436165</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>15118170</v>
+        <v>13041083</v>
       </c>
       <c r="G93" t="n">
-        <v>3938017</v>
+        <v>3372609</v>
       </c>
       <c r="H93" t="n">
-        <v>12733803</v>
+        <v>11906380</v>
       </c>
       <c r="I93" t="n">
-        <v>3263937</v>
+        <v>2811731</v>
       </c>
     </row>
     <row r="94">
@@ -3524,29 +3524,29 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2020-9</t>
+          <t>2020-2</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>330170893</v>
+        <v>309631058</v>
       </c>
       <c r="D94" t="n">
-        <v>11238295</v>
+        <v>10653891</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>15335280</v>
+        <v>13629884</v>
       </c>
       <c r="G94" t="n">
-        <v>4016289</v>
+        <v>3412272</v>
       </c>
       <c r="H94" t="n">
-        <v>12827443</v>
+        <v>12167633</v>
       </c>
       <c r="I94" t="n">
-        <v>3306206</v>
+        <v>2879117</v>
       </c>
     </row>
     <row r="95">
@@ -3557,29 +3557,29 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2020-10</t>
+          <t>2020-3</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>333731452</v>
+        <v>313228271</v>
       </c>
       <c r="D95" t="n">
-        <v>11322892</v>
+        <v>10883527</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>15772268</v>
+        <v>14062753</v>
       </c>
       <c r="G95" t="n">
-        <v>4055741</v>
+        <v>3476097</v>
       </c>
       <c r="H95" t="n">
-        <v>12927261</v>
+        <v>12411389</v>
       </c>
       <c r="I95" t="n">
-        <v>3356079</v>
+        <v>2946299</v>
       </c>
     </row>
     <row r="96">
@@ -3590,29 +3590,29 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2020-11</t>
+          <t>2020-4</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>337336630</v>
+        <v>315971834</v>
       </c>
       <c r="D96" t="n">
-        <v>11520006</v>
+        <v>10925306</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>16070737</v>
+        <v>14295942</v>
       </c>
       <c r="G96" t="n">
-        <v>4096307</v>
+        <v>3562612</v>
       </c>
       <c r="H96" t="n">
-        <v>13039828</v>
+        <v>12482504</v>
       </c>
       <c r="I96" t="n">
-        <v>3423020</v>
+        <v>3011887</v>
       </c>
     </row>
     <row r="97">
@@ -3623,29 +3623,29 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2020-5</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>341586294</v>
+        <v>318864089</v>
       </c>
       <c r="D97" t="n">
-        <v>11723938</v>
+        <v>10989573</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>16510775</v>
+        <v>14578294</v>
       </c>
       <c r="G97" t="n">
-        <v>4115028</v>
+        <v>3657979</v>
       </c>
       <c r="H97" t="n">
-        <v>13210499</v>
+        <v>12563780</v>
       </c>
       <c r="I97" t="n">
-        <v>3482410</v>
+        <v>3080615</v>
       </c>
     </row>
     <row r="98">
@@ -3656,29 +3656,29 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2021-1</t>
+          <t>2020-6</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>346256832</v>
+        <v>321632796</v>
       </c>
       <c r="D98" t="n">
-        <v>11939327</v>
+        <v>11073251</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>16958871</v>
+        <v>14768148</v>
       </c>
       <c r="G98" t="n">
-        <v>4134197</v>
+        <v>3743552</v>
       </c>
       <c r="H98" t="n">
-        <v>13528695</v>
+        <v>12647419</v>
       </c>
       <c r="I98" t="n">
-        <v>3546945</v>
+        <v>3144568</v>
       </c>
     </row>
     <row r="99">
@@ -3689,29 +3689,29 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2021-2</t>
+          <t>2020-7</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>350096320</v>
+        <v>324527926</v>
       </c>
       <c r="D99" t="n">
-        <v>12154080</v>
+        <v>11120966</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>17383226</v>
+        <v>14941314</v>
       </c>
       <c r="G99" t="n">
-        <v>4175528</v>
+        <v>3847291</v>
       </c>
       <c r="H99" t="n">
-        <v>13788166</v>
+        <v>12695857</v>
       </c>
       <c r="I99" t="n">
-        <v>3607162</v>
+        <v>3219789</v>
       </c>
     </row>
     <row r="100">
@@ -3722,29 +3722,29 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2021-3</t>
+          <t>2020-8</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>353948863</v>
+        <v>327240982</v>
       </c>
       <c r="D100" t="n">
-        <v>12344474</v>
+        <v>11155671</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>17717255</v>
+        <v>15118170</v>
       </c>
       <c r="G100" t="n">
-        <v>4217012</v>
+        <v>3938017</v>
       </c>
       <c r="H100" t="n">
-        <v>13954588</v>
+        <v>12733803</v>
       </c>
       <c r="I100" t="n">
-        <v>3664843</v>
+        <v>3263937</v>
       </c>
     </row>
     <row r="101">
@@ -3755,29 +3755,29 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2021-4</t>
+          <t>2020-9</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>357368914</v>
+        <v>330170893</v>
       </c>
       <c r="D101" t="n">
-        <v>12427654</v>
+        <v>11238295</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>18034736</v>
+        <v>15335280</v>
       </c>
       <c r="G101" t="n">
-        <v>4321475</v>
+        <v>4016289</v>
       </c>
       <c r="H101" t="n">
-        <v>14033382</v>
+        <v>12827443</v>
       </c>
       <c r="I101" t="n">
-        <v>3725483</v>
+        <v>3306206</v>
       </c>
     </row>
     <row r="102">
@@ -3788,29 +3788,29 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2021-5</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>360630838</v>
+        <v>333731452</v>
       </c>
       <c r="D102" t="n">
-        <v>12488951</v>
+        <v>11322892</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>18477308</v>
+        <v>15772268</v>
       </c>
       <c r="G102" t="n">
-        <v>4422327</v>
+        <v>4055741</v>
       </c>
       <c r="H102" t="n">
-        <v>14230256</v>
+        <v>12927261</v>
       </c>
       <c r="I102" t="n">
-        <v>3788320</v>
+        <v>3356079</v>
       </c>
     </row>
     <row r="103">
@@ -3821,29 +3821,29 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2021-6</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>363590670</v>
+        <v>337336630</v>
       </c>
       <c r="D103" t="n">
-        <v>12528733</v>
+        <v>11520006</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>18609396</v>
+        <v>16070737</v>
       </c>
       <c r="G103" t="n">
-        <v>4528075</v>
+        <v>4096307</v>
       </c>
       <c r="H103" t="n">
-        <v>14332842</v>
+        <v>13039828</v>
       </c>
       <c r="I103" t="n">
-        <v>3849635</v>
+        <v>3423020</v>
       </c>
     </row>
     <row r="104">
@@ -3854,29 +3854,29 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2021-7</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>366540251</v>
+        <v>341586294</v>
       </c>
       <c r="D104" t="n">
-        <v>12572902</v>
+        <v>11723938</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>18844720</v>
+        <v>16510775</v>
       </c>
       <c r="G104" t="n">
-        <v>4629526</v>
+        <v>4115028</v>
       </c>
       <c r="H104" t="n">
-        <v>14544249</v>
+        <v>13210499</v>
       </c>
       <c r="I104" t="n">
-        <v>3921583</v>
+        <v>3482410</v>
       </c>
     </row>
     <row r="105">
@@ -3887,29 +3887,29 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2021-8</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>369217152</v>
+        <v>201676093884</v>
       </c>
       <c r="D105" t="n">
-        <v>12609197</v>
+        <v>8147905655</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>19037084</v>
+        <v>3982293498</v>
       </c>
       <c r="G105" t="n">
-        <v>4730471</v>
+        <v>1638013714</v>
       </c>
       <c r="H105" t="n">
-        <v>14658276</v>
+        <v>8798331402</v>
       </c>
       <c r="I105" t="n">
-        <v>3973870</v>
+        <v>1290777812</v>
       </c>
     </row>
     <row r="106">
@@ -3920,29 +3920,29 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2021-9</t>
+          <t>2021-1</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>372194208</v>
+        <v>346256832</v>
       </c>
       <c r="D106" t="n">
-        <v>12683865</v>
+        <v>11939327</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>19205203</v>
+        <v>16958871</v>
       </c>
       <c r="G106" t="n">
-        <v>4825252</v>
+        <v>4134197</v>
       </c>
       <c r="H106" t="n">
-        <v>14751700</v>
+        <v>13528695</v>
       </c>
       <c r="I106" t="n">
-        <v>4027817</v>
+        <v>3546945</v>
       </c>
     </row>
     <row r="107">
@@ -3953,29 +3953,29 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-2</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>375628655</v>
+        <v>350096320</v>
       </c>
       <c r="D107" t="n">
-        <v>12771353</v>
+        <v>12154080</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>19543735</v>
+        <v>17383226</v>
       </c>
       <c r="G107" t="n">
-        <v>4908877</v>
+        <v>4175528</v>
       </c>
       <c r="H107" t="n">
-        <v>14841659</v>
+        <v>13788166</v>
       </c>
       <c r="I107" t="n">
-        <v>4095849</v>
+        <v>3607162</v>
       </c>
     </row>
     <row r="108">
@@ -3986,29 +3986,29 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2021-3</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>379672345</v>
+        <v>353948863</v>
       </c>
       <c r="D108" t="n">
-        <v>12976136</v>
+        <v>12344474</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>19809965</v>
+        <v>17717255</v>
       </c>
       <c r="G108" t="n">
-        <v>4942722</v>
+        <v>4217012</v>
       </c>
       <c r="H108" t="n">
-        <v>14951288</v>
+        <v>13954588</v>
       </c>
       <c r="I108" t="n">
-        <v>4167494</v>
+        <v>3664843</v>
       </c>
     </row>
     <row r="109">
@@ -4019,29 +4019,326 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
+          <t>2021-4</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>357368914</v>
+      </c>
+      <c r="D109" t="n">
+        <v>12427654</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>18034736</v>
+      </c>
+      <c r="G109" t="n">
+        <v>4321475</v>
+      </c>
+      <c r="H109" t="n">
+        <v>14033382</v>
+      </c>
+      <c r="I109" t="n">
+        <v>3725483</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Bourgogne</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2021-5</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>360630838</v>
+      </c>
+      <c r="D110" t="n">
+        <v>12488951</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>18477308</v>
+      </c>
+      <c r="G110" t="n">
+        <v>4422327</v>
+      </c>
+      <c r="H110" t="n">
+        <v>14230256</v>
+      </c>
+      <c r="I110" t="n">
+        <v>3788320</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Bourgogne</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2021-6</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>363590670</v>
+      </c>
+      <c r="D111" t="n">
+        <v>12528733</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>18609396</v>
+      </c>
+      <c r="G111" t="n">
+        <v>4528075</v>
+      </c>
+      <c r="H111" t="n">
+        <v>14332842</v>
+      </c>
+      <c r="I111" t="n">
+        <v>3849635</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Bourgogne</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2021-7</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>366540251</v>
+      </c>
+      <c r="D112" t="n">
+        <v>12572902</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>18844720</v>
+      </c>
+      <c r="G112" t="n">
+        <v>4629526</v>
+      </c>
+      <c r="H112" t="n">
+        <v>14544249</v>
+      </c>
+      <c r="I112" t="n">
+        <v>3921583</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Bourgogne</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2021-8</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>369217152</v>
+      </c>
+      <c r="D113" t="n">
+        <v>12609197</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>19037084</v>
+      </c>
+      <c r="G113" t="n">
+        <v>4730471</v>
+      </c>
+      <c r="H113" t="n">
+        <v>14658276</v>
+      </c>
+      <c r="I113" t="n">
+        <v>3973870</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Bourgogne</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2021-9</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>372194208</v>
+      </c>
+      <c r="D114" t="n">
+        <v>12683865</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>19205203</v>
+      </c>
+      <c r="G114" t="n">
+        <v>4825252</v>
+      </c>
+      <c r="H114" t="n">
+        <v>14751700</v>
+      </c>
+      <c r="I114" t="n">
+        <v>4027817</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Bourgogne</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>375628655</v>
+      </c>
+      <c r="D115" t="n">
+        <v>12771353</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>19543735</v>
+      </c>
+      <c r="G115" t="n">
+        <v>4908877</v>
+      </c>
+      <c r="H115" t="n">
+        <v>14841659</v>
+      </c>
+      <c r="I115" t="n">
+        <v>4095849</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Bourgogne</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>379672345</v>
+      </c>
+      <c r="D116" t="n">
+        <v>12976136</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>19809965</v>
+      </c>
+      <c r="G116" t="n">
+        <v>4942722</v>
+      </c>
+      <c r="H116" t="n">
+        <v>14951288</v>
+      </c>
+      <c r="I116" t="n">
+        <v>4167494</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Bourgogne</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
           <t>2021-12</t>
         </is>
       </c>
-      <c r="C109" t="n">
+      <c r="C117" t="n">
         <v>384099352</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D117" t="n">
         <v>13228883</v>
       </c>
-      <c r="E109" t="n">
-        <v>0</v>
-      </c>
-      <c r="F109" t="n">
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
         <v>20276657</v>
       </c>
-      <c r="G109" t="n">
+      <c r="G117" t="n">
         <v>4966909</v>
       </c>
-      <c r="H109" t="n">
+      <c r="H117" t="n">
         <v>15169325</v>
       </c>
-      <c r="I109" t="n">
+      <c r="I117" t="n">
         <v>4238919</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Bourgogne</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>407731432168</v>
+      </c>
+      <c r="D118" t="n">
+        <v>16446536865</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>8188485152</v>
+      </c>
+      <c r="G118" t="n">
+        <v>3330829799</v>
+      </c>
+      <c r="H118" t="n">
+        <v>17769447230</v>
+      </c>
+      <c r="I118" t="n">
+        <v>2628163544</v>
       </c>
     </row>
   </sheetData>
